--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577534.868124043</v>
+        <v>598308.7820235867</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341311.708736053</v>
+        <v>8341311.708736052</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1081737973393</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.57566235103577</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>95.61266302004007</v>
       </c>
       <c r="G8" t="n">
-        <v>87.80598074015778</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>105.3830043755882</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>144.4963044197314</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.70004712226958</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>77.14804664098575</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>150.8081381021383</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1509,10 +1509,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1582,7 +1582,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496628</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>126.995733234708</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>134.1371012074456</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1737,7 +1737,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>46.80807769362095</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>72.767692014606</v>
       </c>
       <c r="T17" t="n">
-        <v>184.287718198781</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>133.675685265885</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5094627624085</v>
       </c>
       <c r="H20" t="n">
-        <v>64.4645282273834</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>92.90596609416677</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.99821925706101</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>177.53919408563</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>169.0167291702125</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>275.4805812731083</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>331.1774166426951</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="28">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>55.84003136202625</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>102.8565376741628</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>251.1253106101644</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>68.16471659739257</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>16.88986550434911</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>285.5453800016779</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>98.63122914173785</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.57756245340212</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>128.4970238253391</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1156467944718</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>327.5253445255203</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>144.5218139223219</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>319.2819390356227</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>132.9342137328509</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>130.1024780662195</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3800,10 +3800,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>103.5274726747894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3940,28 +3940,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>144.8294691548012</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.1390719127048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>714.2935111167145</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>714.2935111167145</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>714.2935111167145</v>
       </c>
       <c r="V3" t="n">
-        <v>526.7184526376595</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="W3" t="n">
-        <v>283.2696759935595</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="X3" t="n">
-        <v>75.41817578802664</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4513,25 +4513,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.7522725546766</v>
+        <v>387.677339508617</v>
       </c>
       <c r="C8" t="n">
-        <v>109.7522725546766</v>
+        <v>387.677339508617</v>
       </c>
       <c r="D8" t="n">
-        <v>109.7522725546766</v>
+        <v>387.677339508617</v>
       </c>
       <c r="E8" t="n">
-        <v>109.7522725546766</v>
+        <v>387.677339508617</v>
       </c>
       <c r="F8" t="n">
-        <v>109.7522725546766</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>291.098892013627</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613333</v>
@@ -4835,19 +4835,19 @@
         <v>907.4554057415451</v>
       </c>
       <c r="U8" t="n">
-        <v>907.4554057415451</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="V8" t="n">
-        <v>641.5543613459222</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="W8" t="n">
-        <v>375.6533169502994</v>
+        <v>387.677339508617</v>
       </c>
       <c r="X8" t="n">
-        <v>109.7522725546766</v>
+        <v>387.677339508617</v>
       </c>
       <c r="Y8" t="n">
-        <v>109.7522725546766</v>
+        <v>387.677339508617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>738.7969357363646</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>564.3439064552376</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>415.4094967939863</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>256.1720417885308</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
         <v>21.05936271613333</v>
@@ -4887,19 +4887,19 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>21.05936271613333</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>281.6689763282832</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>542.2785899404332</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490201</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806666</v>
@@ -4911,22 +4911,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>946.5206566394056</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>718.3003278816104</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>483.1482196498678</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W9" t="n">
-        <v>228.9108629216662</v>
+        <v>907.0122727564326</v>
       </c>
       <c r="X9" t="n">
-        <v>21.05936271613333</v>
+        <v>907.0122727564326</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>907.0122727564326</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
         <v>21.05936271613333</v>
@@ -4984,28 +4984,28 @@
         <v>98.98668255551287</v>
       </c>
       <c r="R10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.98668255551287</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5099885583422</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2368.64015070397</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2037.577263360399</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1684.808608090285</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1311.342849829206</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>921.2035178533938</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5230,19 +5230,19 @@
         <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.4089578252748</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="C14" t="n">
-        <v>207.4089578252748</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D14" t="n">
-        <v>207.4089578252748</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5303,25 +5303,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2513.841883129819</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2295.207216101881</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2041.445430739973</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1710.382543396402</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1357.613888126288</v>
+        <v>1526.991552707807</v>
       </c>
       <c r="X14" t="n">
-        <v>984.1481298652084</v>
+        <v>1153.525794446728</v>
       </c>
       <c r="Y14" t="n">
-        <v>594.0087978893966</v>
+        <v>1153.525794446728</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5373,7 +5373,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5385,19 +5385,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5416,16 +5416,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2623.64637181155</v>
       </c>
       <c r="T17" t="n">
-        <v>2279.793703561087</v>
+        <v>2623.64637181155</v>
       </c>
       <c r="U17" t="n">
-        <v>2279.793703561087</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="V17" t="n">
-        <v>2279.793703561087</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W17" t="n">
-        <v>1927.025048290972</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X17" t="n">
-        <v>1553.559290029893</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5616,7 +5616,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>325.2978374347314</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C19" t="n">
-        <v>325.2978374347314</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D19" t="n">
-        <v>325.2978374347314</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E19" t="n">
-        <v>325.2978374347314</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F19" t="n">
-        <v>325.2978374347314</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2978374347314</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>863.1126181035243</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C20" t="n">
-        <v>863.1126181035243</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D20" t="n">
-        <v>504.8469194967738</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="E20" t="n">
-        <v>119.0586668985295</v>
+        <v>867.4636974810917</v>
       </c>
       <c r="F20" t="n">
-        <v>119.0586668985295</v>
+        <v>456.4777926914841</v>
       </c>
       <c r="G20" t="n">
-        <v>119.0586668985295</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5762,7 +5762,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5795,7 +5795,7 @@
         <v>1639.851790143458</v>
       </c>
       <c r="Y20" t="n">
-        <v>1249.712458167646</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5835,19 +5835,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5868,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5929,31 +5929,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y22" t="n">
-        <v>329.7728273507099</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>55.96138511032507</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>55.96138511032507</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2045.420119349963</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.420119349963</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.280787374151</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,7 +6087,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.94416071721</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D26" t="n">
-        <v>1546.94416071721</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E26" t="n">
-        <v>1161.155908118965</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>750.1700033293578</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>332.2061952275446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1559.167108211376</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1185.701349950297</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,22 +6324,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>279.3468541648868</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C28" t="n">
-        <v>279.3468541648868</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D28" t="n">
-        <v>279.3468541648868</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E28" t="n">
-        <v>279.3468541648868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>279.3468541648868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>110.3470539032193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>500.139433308417</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>279.3468541648868</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>850.7171392082163</v>
+        <v>1330.553052060998</v>
       </c>
       <c r="C29" t="n">
-        <v>850.7171392082163</v>
+        <v>961.5905351205863</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>961.5905351205863</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>575.802282522342</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>575.802282522342</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>157.8384744205289</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>157.8384744205289</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500978</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V29" t="n">
-        <v>1881.118241157407</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W29" t="n">
-        <v>1881.118241157407</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X29" t="n">
-        <v>1627.45631124815</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y29" t="n">
-        <v>1237.316979272338</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,46 +6537,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2091.816337720428</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005475</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W31" t="n">
-        <v>456.3840257941342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X31" t="n">
-        <v>456.3840257941342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5914466506042</v>
+        <v>2442.464602812336</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.146815977588</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C32" t="n">
-        <v>1139.146815977588</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D32" t="n">
-        <v>1139.146815977588</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>753.3585633793437</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>342.3726585897361</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2191.89927156006</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2152.758062193102</v>
       </c>
       <c r="F34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="U34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="V34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="W34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="X34" t="n">
-        <v>2469.840903686824</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="Y34" t="n">
-        <v>2249.048324543294</v>
+        <v>2321.694245121009</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1215.881273373638</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C35" t="n">
-        <v>846.9187564332267</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D35" t="n">
-        <v>846.9187564332267</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>461.1305038349824</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6965,22 +6965,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2366.086203674652</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>1992.620445413572</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y35" t="n">
-        <v>1602.48111343776</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,7 +7035,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2342.015910972395</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2173.079728044489</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2523.664375802635</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2523.664375802635</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>885.3850306156796</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C38" t="n">
-        <v>885.3850306156796</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="D38" t="n">
-        <v>527.1193320089292</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="E38" t="n">
-        <v>527.1193320089292</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7199,25 +7199,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2035.589960916693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X38" t="n">
-        <v>1662.124202655613</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y38" t="n">
-        <v>1271.984870679801</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>507.3364050629041</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C40" t="n">
-        <v>507.3364050629041</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D40" t="n">
-        <v>357.2197656505683</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D41" t="n">
         <v>53.94298182036445</v>
@@ -7436,25 +7436,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W41" t="n">
-        <v>1557.91036940746</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X41" t="n">
-        <v>1557.91036940746</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.771037431648</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7491,10 +7491,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7518,13 +7518,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2077.988902792793</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.923258067584</v>
+        <v>1345.623078162045</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.960741127172</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="D44" t="n">
-        <v>857.6950425204218</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7682,16 +7682,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2311.057514205145</v>
+        <v>2495.828008463058</v>
       </c>
       <c r="X44" t="n">
-        <v>2311.057514205145</v>
+        <v>2122.362250201978</v>
       </c>
       <c r="Y44" t="n">
-        <v>1971.523098131706</v>
+        <v>1732.222918226166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7749,19 +7749,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>559.1928012785273</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>409.0761618661916</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>261.1630682837985</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>114.2731207858881</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>127.806478742992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>197.5393732613979</v>
       </c>
       <c r="O9" t="n">
-        <v>376.3118568687445</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,7 +10902,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,13 +11139,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,22 +22589,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>184.8849328556481</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22638,10 +22638,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,13 +22671,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>24.57499730649852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22686,13 +22686,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>130.9839860506966</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,13 +22793,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,7 +22917,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22996,7 +22996,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>311.2633827216713</v>
       </c>
       <c r="G8" t="n">
-        <v>327.4042406636736</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I8" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,16 +23075,16 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>85.99893476574641</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,19 +23097,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.2940166796957</v>
@@ -23118,7 +23118,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,19 +23151,19 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>94.58220263348665</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>107.1986787411882</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23200,10 +23200,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>30.72511533612186</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>98.2793743957106</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908973</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,10 +23273,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>100.416029406151</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114811</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,10 +23510,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.41997957426355</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>215.1038675099674</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>109.3628111481742</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>101.6480207943655</v>
       </c>
       <c r="T17" t="n">
-        <v>32.16060215887677</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>22.49520357591012</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23935,7 +23935,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23947,7 +23947,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,19 +23972,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>15.27470725838651</v>
       </c>
       <c r="H20" t="n">
-        <v>259.4582445369738</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,13 +24142,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>63.26492274762838</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24169,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,22 +24206,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>321.9245535072961</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24257,19 +24257,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>171.7017746317831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726084</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24412,19 +24412,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>56.01837628787177</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>48.44219149124882</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24494,22 +24494,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>18.0635520747179</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>100.3308574797689</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>49.07477857069847</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24737,16 +24737,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>118.6057900683047</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>88.00617224440258</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.6331328322419</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>128.2387900191171</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24965,25 +24965,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>271.0998715367312</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.2544177285352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>16.92402419759213</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>3.760398947239594</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25205,22 +25205,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>42.20575615294877</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>53.9597873256059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>262.3542318193896</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.640833728734492</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25439,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.49974891371826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>86.34584229143829</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,10 +25688,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>245.7134960426237</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25828,28 +25828,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25922,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>204.4114995626119</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.09886674334882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,19 +26023,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26074,16 +26074,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744443</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.1898834555</v>
+        <v>492874.1898834557</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
         <v>147339.127997248</v>
@@ -26323,7 +26323,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>26613.587572663</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>407720.4376835743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525615</v>
+        <v>5625.642228525672</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>36111.51865793981</v>
+        <v>33719.40849968307</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23852.34097909832</v>
+        <v>-21463.97542793463</v>
       </c>
       <c r="C6" t="n">
-        <v>56917.09055244944</v>
+        <v>59305.45610361311</v>
       </c>
       <c r="D6" t="n">
-        <v>34479.61435981184</v>
+        <v>36871.72451806856</v>
       </c>
       <c r="E6" t="n">
-        <v>-249645.2650372991</v>
+        <v>-247116.9438738567</v>
       </c>
       <c r="F6" t="n">
-        <v>158075.1726462754</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="G6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="H6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="I6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="J6" t="n">
-        <v>95015.23004716905</v>
+        <v>97543.55121061135</v>
       </c>
       <c r="K6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="L6" t="n">
-        <v>152449.5304177497</v>
+        <v>154977.8515811919</v>
       </c>
       <c r="M6" t="n">
-        <v>55641.05495564009</v>
+        <v>58169.37611908246</v>
       </c>
       <c r="N6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="O6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="P6" t="n">
-        <v>158075.1726462753</v>
+        <v>160603.4938097176</v>
       </c>
     </row>
   </sheetData>
@@ -26808,16 +26808,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>22.22774507400766</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>411.0452388028889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>79.07191193225258</v>
       </c>
       <c r="O9" t="n">
-        <v>245.4930366753403</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
         <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,13 +35495,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -36203,7 +36203,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36674,10 +36674,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -38020,7 +38020,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598308.7820235867</v>
+        <v>638640.3216923919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889763</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341311.708736052</v>
+        <v>8323672.938960839</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>142.8673256144868</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1081737973393</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>234.288905720311</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="7">
@@ -1133,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95.61266302004007</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>263.2420339516666</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>144.4963044197314</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>35.40726547353827</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.14804664098575</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.8081381021383</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>159.436828387929</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1509,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1582,7 +1584,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>54.47555601903385</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>24.29040109555791</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>134.1371012074456</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H16" t="n">
-        <v>46.80807769362095</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,16 +1846,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>7.058423000548196</v>
       </c>
       <c r="S17" t="n">
-        <v>72.767692014606</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.055538822593</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>144.8294691548012</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5094627624085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.3364906735232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.8566199863817</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>254.7848454013382</v>
       </c>
       <c r="H23" t="n">
-        <v>1.99821925706101</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>1.998219257060532</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>331.1774166426951</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.5983059739478</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>102.8565376741628</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>81.92547811985646</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>68.16471659739257</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.71042305649407</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3047,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>135.7761742049804</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>98.63122914173785</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>128.4970238253391</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>208.1110812604921</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>153.1096317165485</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>327.5253445255203</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>6.621576176023336</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>319.2819390356227</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>2.801690848279195</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>130.1024780662195</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3870,7 +3872,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.8742649987725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>144.8294691548012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>247.99669677933</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271.3811041200179</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4416,13 +4418,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>714.2935111167145</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>714.2935111167145</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>714.2935111167145</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>479.1414028849718</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>479.1414028849718</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>479.1414028849718</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>271.3811041200179</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.9366034337592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>387.677339508617</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="C8" t="n">
-        <v>387.677339508617</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="D8" t="n">
-        <v>387.677339508617</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="E8" t="n">
-        <v>387.677339508617</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="F8" t="n">
-        <v>291.098892013627</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>291.098892013627</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>907.4554057415451</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>907.4554057415451</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>653.5783839042398</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V8" t="n">
-        <v>653.5783839042398</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W8" t="n">
-        <v>387.677339508617</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X8" t="n">
-        <v>387.677339508617</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y8" t="n">
-        <v>387.677339508617</v>
+        <v>953.9655401424089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>738.7969357363646</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>564.3439064552376</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>415.4094967939863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>256.1720417885308</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>109.6374838154158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>109.6374838154158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231457</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>533.6469426057911</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806666</v>
+        <v>298.4948343740484</v>
       </c>
       <c r="W9" t="n">
-        <v>907.0122727564326</v>
+        <v>55.04605772994836</v>
       </c>
       <c r="X9" t="n">
-        <v>907.0122727564326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>907.0122727564326</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.98668255551287</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>534.603677789272</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C11" t="n">
-        <v>534.603677789272</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
         <v>534.603677789272</v>
@@ -5036,7 +5038,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5045,46 +5047,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2368.64015070397</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2037.577263360399</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1684.808608090285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1311.342849829206</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>921.2035178533938</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5117,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>766.9259543826058</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="C14" t="n">
-        <v>766.9259543826058</v>
+        <v>1233.518596497348</v>
       </c>
       <c r="D14" t="n">
-        <v>766.9259543826058</v>
+        <v>875.252897890598</v>
       </c>
       <c r="E14" t="n">
-        <v>381.1377017843616</v>
+        <v>489.4646452923537</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>78.47874050274618</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>78.47874050274618</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>1526.991552707807</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X14" t="n">
-        <v>1153.525794446728</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y14" t="n">
-        <v>1153.525794446728</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5373,7 +5375,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940985</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E16" t="n">
-        <v>430.0992512117053</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F16" t="n">
-        <v>283.209303713795</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G16" t="n">
-        <v>283.209303713795</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1219.679656148628</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7171392082162</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.019370815648</v>
       </c>
       <c r="S17" t="n">
-        <v>2623.64637181155</v>
+        <v>2513.841883129819</v>
       </c>
       <c r="T17" t="n">
-        <v>2623.64637181155</v>
+        <v>2295.207216101881</v>
       </c>
       <c r="U17" t="n">
-        <v>2369.884586449641</v>
+        <v>2041.445430739973</v>
       </c>
       <c r="V17" t="n">
-        <v>2369.884586449641</v>
+        <v>1710.382543396402</v>
       </c>
       <c r="W17" t="n">
-        <v>2369.884586449641</v>
+        <v>1357.613888126288</v>
       </c>
       <c r="X17" t="n">
-        <v>1996.418828188561</v>
+        <v>984.1481298652084</v>
       </c>
       <c r="Y17" t="n">
-        <v>1606.27949621275</v>
+        <v>594.0087978893966</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5601,16 +5603,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5619,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1253.251950079336</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1253.251950079336</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>1253.251950079336</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E20" t="n">
-        <v>867.4636974810917</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F20" t="n">
-        <v>456.4777926914841</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1639.851790143458</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1639.851790143458</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5947,13 +5949,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.9192350259435</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066831</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D23" t="n">
-        <v>466.9472898999326</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="E23" t="n">
-        <v>466.9472898999326</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="F23" t="n">
-        <v>55.96138511032507</v>
+        <v>311.3014115186858</v>
       </c>
       <c r="G23" t="n">
-        <v>55.96138511032507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6181,16 +6183,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>184.0273259635867</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.0273259635867</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>799.1015098861748</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C26" t="n">
-        <v>799.1015098861748</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D26" t="n">
-        <v>799.1015098861748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E26" t="n">
-        <v>799.1015098861748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
@@ -6230,10 +6232,10 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N26" t="n">
         <v>1836.345445977174</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W26" t="n">
-        <v>1559.167108211376</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X26" t="n">
-        <v>1185.701349950297</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y26" t="n">
-        <v>1185.701349950297</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6342,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.9088977430002</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="C28" t="n">
-        <v>351.9727148150933</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452406</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="Y28" t="n">
-        <v>702.55736257324</v>
+        <v>2107.40582193917</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1330.553052060998</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C29" t="n">
-        <v>961.5905351205863</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D29" t="n">
-        <v>961.5905351205863</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E29" t="n">
-        <v>575.802282522342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F29" t="n">
-        <v>575.802282522342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>157.8384744205289</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>157.8384744205289</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,40 +6475,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2614.396082816348</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.387305656314</v>
+        <v>2283.333195472777</v>
       </c>
       <c r="W29" t="n">
-        <v>2090.6186503862</v>
+        <v>1930.564540202663</v>
       </c>
       <c r="X29" t="n">
-        <v>1717.15289212512</v>
+        <v>1557.098781941583</v>
       </c>
       <c r="Y29" t="n">
-        <v>1717.15289212512</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2260.816137982096</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C31" t="n">
-        <v>2260.816137982096</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="D31" t="n">
-        <v>2260.816137982096</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="E31" t="n">
-        <v>2260.816137982096</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="F31" t="n">
-        <v>2260.816137982096</v>
+        <v>2368.610678690073</v>
       </c>
       <c r="G31" t="n">
-        <v>2091.816337720428</v>
+        <v>2199.610878428405</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>2041.862505860935</v>
       </c>
       <c r="I31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6627,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>2442.464602812336</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X31" t="n">
-        <v>2442.464602812336</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y31" t="n">
-        <v>2442.464602812336</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>518.285352496463</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>191.0906325324659</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6740,10 +6742,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y32" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036446</v>
@@ -6789,13 +6791,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C34" t="n">
-        <v>2152.758062193102</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>2152.758062193102</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>2152.758062193102</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y34" t="n">
-        <v>2321.694245121009</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1210.087414675782</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="C35" t="n">
-        <v>1210.087414675782</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="D35" t="n">
         <v>1210.087414675782</v>
@@ -6923,28 +6925,28 @@
         <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G35" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6962,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014692</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X35" t="n">
-        <v>1210.087414675782</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="Y35" t="n">
-        <v>1210.087414675782</v>
+        <v>1364.743608328861</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,37 +7028,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2508.81216540412</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>2339.875982476213</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>2339.875982476213</v>
       </c>
       <c r="E37" t="n">
-        <v>580.2158906240411</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F37" t="n">
-        <v>433.3259431261307</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
-        <v>264.3261428644631</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H37" t="n">
-        <v>106.5777702969933</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2690.46063023436</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>898.8784838925781</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C38" t="n">
-        <v>529.9159669521664</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>529.9159669521664</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>529.9159669521664</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>529.9159669521664</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G38" t="n">
-        <v>529.9159669521664</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="W38" t="n">
-        <v>1662.48357412947</v>
+        <v>2341.55044499227</v>
       </c>
       <c r="X38" t="n">
-        <v>1289.01781586839</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y38" t="n">
-        <v>898.8784838925781</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7363,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.9054987607761</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>53.94298182036445</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.703757037383</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.11042906179</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.64467080071</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.505338824898</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7497,13 +7499,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7518,13 +7520,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7597,16 +7599,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1345.623078162045</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C44" t="n">
-        <v>976.6605612216329</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D44" t="n">
-        <v>618.3948626148824</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E44" t="n">
-        <v>618.3948626148824</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
         <v>881.2824271224073</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2495.828008463058</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>2122.362250201978</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1732.222918226166</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7737,31 +7739,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G46" t="n">
         <v>2022.963088632153</v>
@@ -7834,22 +7836,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>2180.667293341392</v>
+        <v>2446.647377099707</v>
       </c>
       <c r="V46" t="n">
-        <v>2180.667293341392</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>197.5393732613979</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>184.8849328556481</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>24.57499730649852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>130.9839860506966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22826,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="7">
@@ -23021,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>311.2633827216713</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>75.28528753921177</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>107.1986787411882</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>170.3657197299392</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>98.2793743957106</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>100.416029406151</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.8011102681246</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>231.8063182229439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.6323716687992</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>215.1038675099674</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H16" t="n">
-        <v>109.3628111481742</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23732,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23750,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>47.41997957426351</v>
       </c>
       <c r="S17" t="n">
-        <v>101.6480207943655</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>3.115350019202168</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>164.1090973330612</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>237.1009009174606</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15.27470725838651</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.49548950841407</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>54.45318227266918</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>158.9993246194568</v>
       </c>
       <c r="H23" t="n">
-        <v>321.9245535072961</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.52630155726084</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24421,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24494,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>249.2259482512288</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>18.0635520747179</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>72.57258286784734</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24646,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>49.07477857069847</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>169.2986893884328</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>88.00617224440258</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>116.2551987358442</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24895,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>16.15514203988087</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>271.0998715367312</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>16.92402419759213</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25126,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.92402419759216</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>201.5734099041345</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25202,7 +25204,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>42.20575615294877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9630771760715</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>4.640833728734492</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>324.9505676218557</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9321508152008</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>86.34584229143829</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>69.82361682150338</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>4.909905022022485</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>204.4114995626119</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26074,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>38.28517746264771</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3958356744443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473796.0964945848</v>
+        <v>473796.0964945849</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.1898834557</v>
+        <v>473796.0964945847</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
+        <v>141236.5716516326</v>
+      </c>
+      <c r="D2" t="n">
         <v>141236.5716516325</v>
-      </c>
-      <c r="D2" t="n">
-        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26347,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525672</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>33719.40849968307</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26439,7 +26441,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="K4" t="n">
         <v>35944.74664026682</v>
@@ -26448,7 +26450,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26457,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26494,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21463.97542793463</v>
+        <v>-21463.97542793459</v>
       </c>
       <c r="C6" t="n">
-        <v>59305.45610361311</v>
+        <v>59305.4561036132</v>
       </c>
       <c r="D6" t="n">
-        <v>36871.72451806856</v>
+        <v>59305.45610361315</v>
       </c>
       <c r="E6" t="n">
-        <v>-247116.9438738567</v>
+        <v>-272242.6802332785</v>
       </c>
       <c r="F6" t="n">
         <v>160603.4938097176</v>
@@ -26543,25 +26545,25 @@
         <v>160603.4938097176</v>
       </c>
       <c r="J6" t="n">
-        <v>97543.55121061135</v>
+        <v>97543.55121061148</v>
       </c>
       <c r="K6" t="n">
         <v>160603.4938097176</v>
       </c>
       <c r="L6" t="n">
-        <v>154977.8515811919</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="M6" t="n">
-        <v>58169.37611908246</v>
+        <v>52630.13313565953</v>
       </c>
       <c r="N6" t="n">
         <v>160603.4938097176</v>
       </c>
       <c r="O6" t="n">
-        <v>160603.4938097176</v>
+        <v>160603.4938097178</v>
       </c>
       <c r="P6" t="n">
-        <v>160603.4938097176</v>
+        <v>160603.4938097177</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26793,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26811,19 +26813,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -34784,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>79.07191193225258</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K23" t="n">
         <v>297.2230414343419</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
@@ -36674,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -37874,7 +37876,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
